--- a/models/redundancies-identified-and-removed.xlsx
+++ b/models/redundancies-identified-and-removed.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rap/GitRepositories/GitHub/DEMETER/models/previous/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rap/GitRepositories/GitHub/DEMETER/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581D8C73-EF9C-B441-808F-438AD7F495F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631EFBAF-F5BC-704C-8147-79F5E29CCB9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="2960" windowWidth="26040" windowHeight="14540" activeTab="2" xr2:uid="{4E7EF15A-308C-654F-BE72-EC858B7BEAD8}"/>
   </bookViews>
   <sheets>
-    <sheet name="DATAPROPERTIES" sheetId="1" r:id="rId1"/>
-    <sheet name="OBJECTPROPERTIES" sheetId="2" r:id="rId2"/>
-    <sheet name="CLASSES" sheetId="3" r:id="rId3"/>
-    <sheet name="checking" sheetId="4" r:id="rId4"/>
+    <sheet name="Classes_v2" sheetId="5" r:id="rId1"/>
+    <sheet name="DataProperties_v2" sheetId="6" r:id="rId2"/>
+    <sheet name="ObjectProperties_v2" sheetId="7" r:id="rId3"/>
+    <sheet name="DATAPROPERTIES" sheetId="1" state="hidden" r:id="rId4"/>
+    <sheet name="OBJECTPROPERTIES" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="CLASSES" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="checking" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3815" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="772">
   <si>
     <t>https://uri.fiware.org/ns/data-models#status</t>
   </si>
@@ -2098,6 +2101,252 @@
   </si>
   <si>
     <t>schema.Person</t>
+  </si>
+  <si>
+    <t>&lt;http://foodie-cloud.com/model/foodie#Alert&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://uri.fiware.org/ns/data-models#Alert&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://www.opengis.net/ont/geosparql#Geometry&gt;</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>&lt;http://www.opengis.net/ont/sf#Geometry&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://xmlns.com/foaf/0.1/Person&gt;</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>&lt;https://schema.org/Person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://purl.oclc.org/NET/ssnx/cf/cf-feature#Surface&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://www.opengis.net/ont/sf#Surface&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://purl.oclc.org/NET/ssnx/qu/dim#Temperature&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://w3id.org/saref#Temperature&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://www.w3.org/ns/sosa/FeatureOfInterest&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://w3id.org/saref#FeatureOfInterest&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://uri.fiware.org/ns/data-models#Animal&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://w3id.org/def/saref4agri#Animal&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://purl.org/linked-data/cube#Observation&gt;</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>&lt;http://www.w3.org/ns/sosa/Observation&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://www.opengis.net/ont/sf#Point&gt;</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>&lt;http://www.w3.org/2003/01/geo/wgs84_pos#Point&gt;</t>
+  </si>
+  <si>
+    <t>rdf:Property</t>
+  </si>
+  <si>
+    <t>&lt;https://w3id.org/saref#Property&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://www.w3.org/ns/ssn/Property&gt;</t>
+  </si>
+  <si>
+    <t>Renamed</t>
+  </si>
+  <si>
+    <t>LocalName</t>
+  </si>
+  <si>
+    <t>sf.Geometry</t>
+  </si>
+  <si>
+    <t>cf.Surface</t>
+  </si>
+  <si>
+    <t>saref.Temperature</t>
+  </si>
+  <si>
+    <t>qb.Observation</t>
+  </si>
+  <si>
+    <t>wgs84.Point</t>
+  </si>
+  <si>
+    <t>saref.Property</t>
+  </si>
+  <si>
+    <t>&lt;http://foodie-cloud.com/model/foodie#description&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://uri.fiware.org/ns/data-models#description&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://portele.de/ont/inspire/baseInspire#validFrom&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://uri.fiware.org/ns/data-models#validFrom&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://portele.de/ont/inspire/baseInspire#validTo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://uri.fiware.org/ns/data-models#validTo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://foodie-cloud.com/model/foodie#species&gt;</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>&lt;https://uri.fiware.org/ns/data-models#species&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://foodie-cloud.com/model/foodie#status&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://uri.fiware.org/ns/data-models#status&gt;</t>
+  </si>
+  <si>
+    <t>descriptionEntity</t>
+  </si>
+  <si>
+    <t>&lt;http://purl.oclc.org/NET/ssnx/qu/quantity#temperature&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://uri.fiware.org/ns/data-models#temperature&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://purl.org/dc/terms/description&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://schema.org/name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://uri.fiware.org/ns/data-models#name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://xmlns.com/foaf/0.1/name&gt;</t>
+  </si>
+  <si>
+    <t>individuals</t>
+  </si>
+  <si>
+    <t>annotationproperties</t>
+  </si>
+  <si>
+    <t>Not in context</t>
+  </si>
+  <si>
+    <t>dct.description</t>
+  </si>
+  <si>
+    <t>&lt;http://inspire.ec.europa.eu/schemas/af/3.0#contains&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://w3id.org/def/saref4agri#contains&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://www.w3.org/2003/01/geo/wgs84_pos#location&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://uri.fiware.org/ns/data-models#location&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://www.w3.org/ns/ssn/hasProperty&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://w3id.org/saref#hasProperty&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://www.w3.org/ns/sosa/hasFeatureOfInterest&gt;</t>
+  </si>
+  <si>
+    <t>hasFeatureOfInterest</t>
+  </si>
+  <si>
+    <t>&lt;https://w3id.org/saref#hasFeatureOfInterest&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://www.w3.org/ns/sosa/isFeatureOfInterestOf&gt;</t>
+  </si>
+  <si>
+    <t>isFeatureOfInterestOf</t>
+  </si>
+  <si>
+    <t>&lt;https://w3id.org/saref#isFeatureOfInterestOf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://www.w3.org/ns/ssn/isPropertyOf&gt;</t>
+  </si>
+  <si>
+    <t>isPropertyOf</t>
+  </si>
+  <si>
+    <t>&lt;https://w3id.org/saref#isPropertyOf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://foodie-cloud.com/model/foodie#quantity&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://uri.fiware.org/ns/data-models#quantity&gt;</t>
+  </si>
+  <si>
+    <t>objectProperties</t>
+  </si>
+  <si>
+    <t>quantityValue</t>
+  </si>
+  <si>
+    <t>saref.hasFeatureOfInterest</t>
+  </si>
+  <si>
+    <t>saref.isFeatureOfInterestOf</t>
+  </si>
+  <si>
+    <t>saref.isPropertyOf</t>
+  </si>
+  <si>
+    <t>equiv</t>
+  </si>
+  <si>
+    <t>subprop</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>subclass in</t>
+  </si>
+  <si>
+    <t>extra special case: ngsi.Property</t>
   </si>
 </sst>
 </file>
@@ -2483,11 +2732,723 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15197C61-0C48-7940-A8EE-8D641CF5F3DB}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D2" t="s">
+        <v>691</v>
+      </c>
+      <c r="E2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2" t="s">
+        <v>664</v>
+      </c>
+      <c r="G2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B3" t="s">
+        <v>693</v>
+      </c>
+      <c r="D3" t="s">
+        <v>694</v>
+      </c>
+      <c r="E3" t="s">
+        <v>693</v>
+      </c>
+      <c r="F3" t="s">
+        <v>717</v>
+      </c>
+      <c r="G3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>695</v>
+      </c>
+      <c r="B4" t="s">
+        <v>696</v>
+      </c>
+      <c r="D4" t="s">
+        <v>697</v>
+      </c>
+      <c r="E4" t="s">
+        <v>696</v>
+      </c>
+      <c r="F4" t="s">
+        <v>689</v>
+      </c>
+      <c r="G4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C5" t="s">
+        <v>718</v>
+      </c>
+      <c r="D5" t="s">
+        <v>699</v>
+      </c>
+      <c r="E5" t="s">
+        <v>538</v>
+      </c>
+      <c r="G5" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>700</v>
+      </c>
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+      <c r="D6" t="s">
+        <v>701</v>
+      </c>
+      <c r="E6" t="s">
+        <v>670</v>
+      </c>
+      <c r="F6" t="s">
+        <v>719</v>
+      </c>
+      <c r="G6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>702</v>
+      </c>
+      <c r="B7" t="s">
+        <v>668</v>
+      </c>
+      <c r="D7" t="s">
+        <v>703</v>
+      </c>
+      <c r="E7" t="s">
+        <v>668</v>
+      </c>
+      <c r="F7" t="s">
+        <v>667</v>
+      </c>
+      <c r="G7" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D8" t="s">
+        <v>705</v>
+      </c>
+      <c r="E8" t="s">
+        <v>452</v>
+      </c>
+      <c r="G8" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B9" t="s">
+        <v>707</v>
+      </c>
+      <c r="C9" t="s">
+        <v>720</v>
+      </c>
+      <c r="D9" t="s">
+        <v>708</v>
+      </c>
+      <c r="E9" t="s">
+        <v>707</v>
+      </c>
+      <c r="G9" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>709</v>
+      </c>
+      <c r="B10" t="s">
+        <v>710</v>
+      </c>
+      <c r="D10" t="s">
+        <v>711</v>
+      </c>
+      <c r="E10" t="s">
+        <v>710</v>
+      </c>
+      <c r="F10" t="s">
+        <v>721</v>
+      </c>
+      <c r="G10" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B11" t="s">
+        <v>534</v>
+      </c>
+      <c r="C11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" t="s">
+        <v>713</v>
+      </c>
+      <c r="E11" t="s">
+        <v>534</v>
+      </c>
+      <c r="F11" t="s">
+        <v>722</v>
+      </c>
+      <c r="G11" t="s">
+        <v>769</v>
+      </c>
+      <c r="H11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>712</v>
+      </c>
+      <c r="B12" t="s">
+        <v>534</v>
+      </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" t="s">
+        <v>714</v>
+      </c>
+      <c r="E12" t="s">
+        <v>534</v>
+      </c>
+      <c r="G12" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>714</v>
+      </c>
+      <c r="B13" t="s">
+        <v>534</v>
+      </c>
+      <c r="D13" t="s">
+        <v>713</v>
+      </c>
+      <c r="E13" t="s">
+        <v>534</v>
+      </c>
+      <c r="F13" t="s">
+        <v>722</v>
+      </c>
+      <c r="G13" t="s">
+        <v>767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4A8733-A83C-1044-A18C-1ED63564F848}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D2" t="s">
+        <v>724</v>
+      </c>
+      <c r="E2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F2" t="s">
+        <v>734</v>
+      </c>
+      <c r="H2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D3" t="s">
+        <v>726</v>
+      </c>
+      <c r="E3" t="s">
+        <v>648</v>
+      </c>
+      <c r="F3" t="s">
+        <v>649</v>
+      </c>
+      <c r="H3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B4" t="s">
+        <v>651</v>
+      </c>
+      <c r="D4" t="s">
+        <v>728</v>
+      </c>
+      <c r="E4" t="s">
+        <v>651</v>
+      </c>
+      <c r="F4" t="s">
+        <v>652</v>
+      </c>
+      <c r="H4" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B5" t="s">
+        <v>730</v>
+      </c>
+      <c r="D5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E5" t="s">
+        <v>730</v>
+      </c>
+      <c r="F5" t="s">
+        <v>635</v>
+      </c>
+      <c r="H5" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B6" t="s">
+        <v>637</v>
+      </c>
+      <c r="D6" t="s">
+        <v>733</v>
+      </c>
+      <c r="E6" t="s">
+        <v>637</v>
+      </c>
+      <c r="F6" t="s">
+        <v>654</v>
+      </c>
+      <c r="H6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>760</v>
+      </c>
+      <c r="B8" t="s">
+        <v>662</v>
+      </c>
+      <c r="D8" t="s">
+        <v>761</v>
+      </c>
+      <c r="E8" t="s">
+        <v>662</v>
+      </c>
+      <c r="F8" t="s">
+        <v>763</v>
+      </c>
+      <c r="H8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>735</v>
+      </c>
+      <c r="B10" t="s">
+        <v>646</v>
+      </c>
+      <c r="C10" t="s">
+        <v>743</v>
+      </c>
+      <c r="D10" t="s">
+        <v>736</v>
+      </c>
+      <c r="E10" t="s">
+        <v>646</v>
+      </c>
+      <c r="H10" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>737</v>
+      </c>
+      <c r="B12" t="s">
+        <v>636</v>
+      </c>
+      <c r="C12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D12" t="s">
+        <v>724</v>
+      </c>
+      <c r="E12" t="s">
+        <v>636</v>
+      </c>
+      <c r="F12" t="s">
+        <v>734</v>
+      </c>
+      <c r="H12" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>738</v>
+      </c>
+      <c r="B13" t="s">
+        <v>676</v>
+      </c>
+      <c r="C13" t="s">
+        <v>684</v>
+      </c>
+      <c r="D13" t="s">
+        <v>739</v>
+      </c>
+      <c r="E13" t="s">
+        <v>676</v>
+      </c>
+      <c r="H13" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>740</v>
+      </c>
+      <c r="B14" t="s">
+        <v>676</v>
+      </c>
+      <c r="C14" t="s">
+        <v>685</v>
+      </c>
+      <c r="D14" t="s">
+        <v>739</v>
+      </c>
+      <c r="E14" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB64733C-6E56-4049-9A39-9CE332801E8E}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E2" t="s">
+        <v>657</v>
+      </c>
+      <c r="H2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B3" t="s">
+        <v>661</v>
+      </c>
+      <c r="D3" t="s">
+        <v>748</v>
+      </c>
+      <c r="E3" t="s">
+        <v>661</v>
+      </c>
+      <c r="F3" t="s">
+        <v>678</v>
+      </c>
+      <c r="H3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B4" t="s">
+        <v>659</v>
+      </c>
+      <c r="D4" t="s">
+        <v>750</v>
+      </c>
+      <c r="E4" t="s">
+        <v>659</v>
+      </c>
+      <c r="F4" t="s">
+        <v>658</v>
+      </c>
+      <c r="H4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>751</v>
+      </c>
+      <c r="B5" t="s">
+        <v>752</v>
+      </c>
+      <c r="D5" t="s">
+        <v>753</v>
+      </c>
+      <c r="E5" t="s">
+        <v>752</v>
+      </c>
+      <c r="F5" t="s">
+        <v>764</v>
+      </c>
+      <c r="H5" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B6" t="s">
+        <v>755</v>
+      </c>
+      <c r="D6" t="s">
+        <v>756</v>
+      </c>
+      <c r="E6" t="s">
+        <v>755</v>
+      </c>
+      <c r="F6" t="s">
+        <v>765</v>
+      </c>
+      <c r="H6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>757</v>
+      </c>
+      <c r="B7" t="s">
+        <v>758</v>
+      </c>
+      <c r="D7" t="s">
+        <v>759</v>
+      </c>
+      <c r="E7" t="s">
+        <v>758</v>
+      </c>
+      <c r="F7" t="s">
+        <v>766</v>
+      </c>
+      <c r="H7" t="s">
+        <v>767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EB128B-BCC8-2A46-9D0E-E5668A263DC4}">
   <dimension ref="A1:R414"/>
   <sheetViews>
     <sheetView topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="A417" sqref="A416:A417"/>
+      <selection activeCell="A404" sqref="A404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7638,12 +8599,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B5A7E7-A884-264A-AD0F-CCFE5649AA87}">
   <dimension ref="A1:H430"/>
   <sheetViews>
-    <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A426" sqref="A426"/>
+    <sheetView topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="D427" sqref="D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12886,12 +13847,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7380F84-9AFD-2E42-91E6-780C0FF043A8}">
   <dimension ref="A1:H965"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A941" workbookViewId="0">
-      <selection activeCell="B966" sqref="B966"/>
+    <sheetView topLeftCell="A941" workbookViewId="0">
+      <selection activeCell="C961" sqref="C961"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24517,7 +25478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66F6D97-64C7-8945-8FA5-105CA5DD9C91}">
   <dimension ref="A1:A2"/>
   <sheetViews>

--- a/models/redundancies-identified-and-removed.xlsx
+++ b/models/redundancies-identified-and-removed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rap/GitRepositories/GitHub/DEMETER/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631EFBAF-F5BC-704C-8147-79F5E29CCB9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EDA375-27A4-8A4F-A5C9-6288029DD642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="2960" windowWidth="26040" windowHeight="14540" activeTab="2" xr2:uid="{4E7EF15A-308C-654F-BE72-EC858B7BEAD8}"/>
+    <workbookView xWindow="2380" yWindow="2960" windowWidth="26040" windowHeight="14540" xr2:uid="{4E7EF15A-308C-654F-BE72-EC858B7BEAD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes_v2" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4012" uniqueCount="775">
   <si>
     <t>https://uri.fiware.org/ns/data-models#status</t>
   </si>
@@ -2322,9 +2322,6 @@
     <t>objectProperties</t>
   </si>
   <si>
-    <t>quantityValue</t>
-  </si>
-  <si>
     <t>saref.hasFeatureOfInterest</t>
   </si>
   <si>
@@ -2347,6 +2344,18 @@
   </si>
   <si>
     <t>extra special case: ngsi.Property</t>
+  </si>
+  <si>
+    <t>totalQuantity</t>
+  </si>
+  <si>
+    <t>http://qudt.org/schema/qudt/QuantityKind</t>
+  </si>
+  <si>
+    <t>QuantityKind</t>
+  </si>
+  <si>
+    <t>qudt.QuantityKind</t>
   </si>
 </sst>
 </file>
@@ -2733,17 +2742,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15197C61-0C48-7940-A8EE-8D641CF5F3DB}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="2" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
@@ -2786,7 +2794,7 @@
         <v>664</v>
       </c>
       <c r="G2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2806,7 +2814,7 @@
         <v>717</v>
       </c>
       <c r="G3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2826,7 +2834,7 @@
         <v>689</v>
       </c>
       <c r="G4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2846,7 +2854,7 @@
         <v>538</v>
       </c>
       <c r="G5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2866,7 +2874,7 @@
         <v>719</v>
       </c>
       <c r="G6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2886,7 +2894,7 @@
         <v>667</v>
       </c>
       <c r="G7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2906,7 +2914,7 @@
         <v>452</v>
       </c>
       <c r="G8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2926,7 +2934,7 @@
         <v>707</v>
       </c>
       <c r="G9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2946,7 +2954,7 @@
         <v>721</v>
       </c>
       <c r="G10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2969,10 +2977,10 @@
         <v>722</v>
       </c>
       <c r="G11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2992,7 +3000,7 @@
         <v>534</v>
       </c>
       <c r="G12" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3012,7 +3020,27 @@
         <v>722</v>
       </c>
       <c r="G13" t="s">
-        <v>767</v>
+        <v>766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>772</v>
+      </c>
+      <c r="B14" t="s">
+        <v>773</v>
+      </c>
+      <c r="C14" t="s">
+        <v>774</v>
+      </c>
+      <c r="D14" t="s">
+        <v>484</v>
+      </c>
+      <c r="E14" t="s">
+        <v>773</v>
+      </c>
+      <c r="G14" t="s">
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -3025,7 +3053,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3035,6 +3063,7 @@
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3074,7 +3103,7 @@
         <v>734</v>
       </c>
       <c r="H2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3094,7 +3123,7 @@
         <v>649</v>
       </c>
       <c r="H3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3114,7 +3143,7 @@
         <v>652</v>
       </c>
       <c r="H4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3134,7 +3163,7 @@
         <v>635</v>
       </c>
       <c r="H5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3154,7 +3183,7 @@
         <v>654</v>
       </c>
       <c r="H6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3176,10 +3205,10 @@
         <v>662</v>
       </c>
       <c r="F8" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="H8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3204,7 +3233,7 @@
         <v>646</v>
       </c>
       <c r="H10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3232,7 +3261,7 @@
         <v>734</v>
       </c>
       <c r="H12" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3252,7 +3281,7 @@
         <v>676</v>
       </c>
       <c r="H13" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3284,7 +3313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB64733C-6E56-4049-9A39-9CE332801E8E}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3335,7 +3364,7 @@
         <v>657</v>
       </c>
       <c r="H2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3355,7 +3384,7 @@
         <v>678</v>
       </c>
       <c r="H3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3375,7 +3404,7 @@
         <v>658</v>
       </c>
       <c r="H4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3392,10 +3421,10 @@
         <v>752</v>
       </c>
       <c r="F5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3412,10 +3441,10 @@
         <v>755</v>
       </c>
       <c r="F6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3432,10 +3461,10 @@
         <v>758</v>
       </c>
       <c r="F7" t="s">
+        <v>765</v>
+      </c>
+      <c r="H7" t="s">
         <v>766</v>
-      </c>
-      <c r="H7" t="s">
-        <v>767</v>
       </c>
     </row>
   </sheetData>

--- a/models/redundancies-identified-and-removed.xlsx
+++ b/models/redundancies-identified-and-removed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rap/GitRepositories/GitHub/DEMETER/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EDA375-27A4-8A4F-A5C9-6288029DD642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B35139-E3E2-704F-A6A4-D3BA749E4431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="2960" windowWidth="26040" windowHeight="14540" xr2:uid="{4E7EF15A-308C-654F-BE72-EC858B7BEAD8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4012" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4018" uniqueCount="778">
   <si>
     <t>https://uri.fiware.org/ns/data-models#status</t>
   </si>
@@ -2356,6 +2356,15 @@
   </si>
   <si>
     <t>qudt.QuantityKind</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>saref.Sensor</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/sosa/Sensor</t>
   </si>
 </sst>
 </file>
@@ -2742,10 +2751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15197C61-0C48-7940-A8EE-8D641CF5F3DB}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3041,6 +3050,26 @@
       </c>
       <c r="G14" t="s">
         <v>768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>588</v>
+      </c>
+      <c r="B15" t="s">
+        <v>775</v>
+      </c>
+      <c r="C15" t="s">
+        <v>776</v>
+      </c>
+      <c r="D15" t="s">
+        <v>777</v>
+      </c>
+      <c r="E15" t="s">
+        <v>775</v>
+      </c>
+      <c r="G15" t="s">
+        <v>766</v>
       </c>
     </row>
   </sheetData>
